--- a/Bacterial challenge.xlsx
+++ b/Bacterial challenge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Inactivated-vaccines-tilapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E1DDB6-6B8A-435F-9FEA-DBD04C24BE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD50649-27C9-41FE-8DA3-3D2BC81BE6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{8CCAFD7B-191E-4F29-AEFC-795C77723AF6}"/>
+    <workbookView xWindow="2625" yWindow="3420" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{8CCAFD7B-191E-4F29-AEFC-795C77723AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenge 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="43">
   <si>
     <t>Day_post_challenge</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>monovalent Av  (+PBS)</t>
+  </si>
+  <si>
+    <t>bivalent  Sa+Av (+Av)</t>
+  </si>
+  <si>
+    <t>monovalent Sa  (+Sa)</t>
+  </si>
+  <si>
+    <t>bivalent  Sa+Av (+Sa)</t>
+  </si>
+  <si>
+    <t>bivalent Sa+Av (+PBS)</t>
+  </si>
+  <si>
+    <t>monovalent Av  (+Av)</t>
+  </si>
+  <si>
+    <t>monovalent Sa  (+PBS)</t>
+  </si>
+  <si>
+    <t>Control (+Sa)</t>
+  </si>
+  <si>
+    <t>Control (+Av)</t>
+  </si>
+  <si>
+    <t>Control (+PBS)</t>
   </si>
 </sst>
 </file>
@@ -6606,19 +6639,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE07A3E-69CE-413A-BF3D-5B8DCE03A621}">
-  <dimension ref="A1:M401"/>
+  <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N201" sqref="A1:N201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="1" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6626,40 +6661,43 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6667,25 +6705,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
         <v>336</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6693,25 +6734,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3">
         <v>200</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
       <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6719,25 +6763,28 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
         <v>150</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6745,45 +6792,51 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="K5">
-        <v>250</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
         <v>300</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6791,45 +6844,51 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
         <v>336</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6837,22 +6896,25 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9">
         <v>336</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6860,22 +6922,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6883,22 +6948,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11">
         <v>40</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6906,22 +6974,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
         <v>330</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6929,22 +7000,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13">
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
         <v>20</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6952,22 +7026,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14">
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14">
         <v>65</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6975,22 +7052,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15">
         <v>330</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8406,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8414,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8422,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8430,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8438,7 +8518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8446,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8454,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8462,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8470,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8478,1780 +8558,1780 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>25</v>
-      </c>
-      <c r="K202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
         <v>26</v>
       </c>
       <c r="E203" t="s">
-        <v>27</v>
-      </c>
-      <c r="K203">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D204" t="s">
         <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
-      </c>
-      <c r="K204">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
       </c>
       <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
         <v>27</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="M205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>5</v>
-      </c>
-      <c r="C206" t="s">
-        <v>5</v>
       </c>
       <c r="D206" t="s">
         <v>26</v>
       </c>
       <c r="E206" t="s">
-        <v>27</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="M206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
       </c>
       <c r="E207" t="s">
+        <v>5</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
         <v>25</v>
-      </c>
-      <c r="K207">
-        <v>0</v>
-      </c>
-      <c r="M207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>13</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
-      </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-      <c r="M208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D209" t="s">
         <v>12</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
-      </c>
-      <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="M209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9</v>
       </c>
       <c r="C210" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
         <v>12</v>
       </c>
-      <c r="D210" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" t="s">
-        <v>25</v>
-      </c>
-      <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="M210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10</v>
       </c>
       <c r="C211" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
         <v>13</v>
       </c>
-      <c r="D211" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" t="s">
-        <v>25</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="M211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
-      </c>
-      <c r="K212">
-        <v>0</v>
-      </c>
-      <c r="M212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>12</v>
       </c>
       <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="D213" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" t="s">
-        <v>27</v>
-      </c>
-      <c r="K213">
-        <v>0</v>
-      </c>
-      <c r="M213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
       <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
         <v>13</v>
       </c>
-      <c r="D214" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" t="s">
-        <v>27</v>
-      </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-      <c r="M214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>14</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>27</v>
-      </c>
-      <c r="K215">
-        <v>0</v>
-      </c>
-      <c r="M215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>15</v>
       </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>16</v>
       </c>
-      <c r="K217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>17</v>
       </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>18</v>
       </c>
-      <c r="K219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>19</v>
       </c>
-      <c r="K220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20</v>
       </c>
-      <c r="K221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>21</v>
       </c>
-      <c r="K222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>22</v>
       </c>
-      <c r="K223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>23</v>
       </c>
-      <c r="K224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>24</v>
       </c>
-      <c r="K225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>25</v>
       </c>
-      <c r="K226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>26</v>
       </c>
-      <c r="K227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>27</v>
       </c>
-      <c r="K228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>28</v>
       </c>
-      <c r="K229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>29</v>
       </c>
-      <c r="K230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>30</v>
       </c>
-      <c r="K231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>31</v>
       </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>32</v>
       </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>33</v>
       </c>
-      <c r="K234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>34</v>
       </c>
-      <c r="K235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>35</v>
       </c>
-      <c r="K236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>36</v>
       </c>
-      <c r="K237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>37</v>
       </c>
-      <c r="K238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>38</v>
       </c>
-      <c r="K239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>39</v>
       </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>40</v>
       </c>
-      <c r="K241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>41</v>
       </c>
-      <c r="K242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>42</v>
       </c>
-      <c r="K243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>43</v>
       </c>
-      <c r="K244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>44</v>
       </c>
-      <c r="K245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>45</v>
       </c>
-      <c r="K246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>46</v>
       </c>
-      <c r="K247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>47</v>
       </c>
-      <c r="K248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>48</v>
       </c>
-      <c r="K249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>49</v>
       </c>
-      <c r="K250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>50</v>
       </c>
-      <c r="K251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>51</v>
       </c>
-      <c r="K252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>52</v>
       </c>
-      <c r="K253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>53</v>
       </c>
-      <c r="K254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>54</v>
       </c>
-      <c r="K255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>55</v>
       </c>
-      <c r="K256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>56</v>
       </c>
-      <c r="K257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>57</v>
       </c>
-      <c r="K258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>58</v>
       </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>59</v>
       </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>60</v>
       </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>61</v>
       </c>
-      <c r="K262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>62</v>
       </c>
-      <c r="K263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>63</v>
       </c>
-      <c r="K264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>64</v>
       </c>
-      <c r="K265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>65</v>
       </c>
-      <c r="K266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>66</v>
       </c>
-      <c r="K267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>67</v>
       </c>
-      <c r="K268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>68</v>
       </c>
-      <c r="K269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>69</v>
       </c>
-      <c r="K270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>70</v>
       </c>
-      <c r="K271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>71</v>
       </c>
-      <c r="K272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>72</v>
       </c>
-      <c r="K273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>73</v>
       </c>
-      <c r="K274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>74</v>
       </c>
-      <c r="K275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>75</v>
       </c>
-      <c r="K276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>76</v>
       </c>
-      <c r="K277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>77</v>
       </c>
-      <c r="K278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>78</v>
       </c>
-      <c r="K279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>79</v>
       </c>
-      <c r="K280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>80</v>
       </c>
-      <c r="K281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>81</v>
       </c>
-      <c r="K282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>82</v>
       </c>
-      <c r="K283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>83</v>
       </c>
-      <c r="K284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>84</v>
       </c>
-      <c r="K285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>85</v>
       </c>
-      <c r="K286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>86</v>
       </c>
-      <c r="K287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>87</v>
       </c>
-      <c r="K288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>88</v>
       </c>
-      <c r="K289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>89</v>
       </c>
-      <c r="K290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>90</v>
       </c>
-      <c r="K291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>91</v>
       </c>
-      <c r="K292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>92</v>
       </c>
-      <c r="K293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>93</v>
       </c>
-      <c r="K294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>94</v>
       </c>
-      <c r="K295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>95</v>
       </c>
-      <c r="K296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>96</v>
       </c>
-      <c r="K297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>97</v>
       </c>
-      <c r="K298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>98</v>
       </c>
-      <c r="K299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>99</v>
       </c>
-      <c r="K300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>100</v>
       </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>101</v>
       </c>
-      <c r="K302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>102</v>
       </c>
-      <c r="K303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>103</v>
       </c>
-      <c r="K304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>104</v>
       </c>
-      <c r="K305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>105</v>
       </c>
-      <c r="K306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>106</v>
       </c>
-      <c r="K307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>107</v>
       </c>
-      <c r="K308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>108</v>
       </c>
-      <c r="K309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>109</v>
       </c>
-      <c r="K310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>110</v>
       </c>
-      <c r="K311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>111</v>
       </c>
-      <c r="K312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>112</v>
       </c>
-      <c r="K313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>113</v>
       </c>
-      <c r="K314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>114</v>
       </c>
-      <c r="K315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>115</v>
       </c>
-      <c r="K316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>116</v>
       </c>
-      <c r="K317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>117</v>
       </c>
-      <c r="K318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>118</v>
       </c>
-      <c r="K319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>119</v>
       </c>
-      <c r="K320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>120</v>
       </c>
-      <c r="K321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>121</v>
       </c>
-      <c r="K322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>122</v>
       </c>
-      <c r="K323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>123</v>
       </c>
-      <c r="K324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>124</v>
       </c>
-      <c r="K325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>125</v>
       </c>
-      <c r="K326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>126</v>
       </c>
-      <c r="K327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>127</v>
       </c>
-      <c r="K328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>128</v>
       </c>
-      <c r="K329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>129</v>
       </c>
-      <c r="K330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>130</v>
       </c>
-      <c r="K331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>131</v>
       </c>
-      <c r="K332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>132</v>
       </c>
-      <c r="K333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>133</v>
       </c>
-      <c r="K334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>134</v>
       </c>
-      <c r="K335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>135</v>
       </c>
-      <c r="K336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>136</v>
       </c>
-      <c r="K337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>137</v>
       </c>
-      <c r="K338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>138</v>
       </c>
-      <c r="K339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>139</v>
       </c>
-      <c r="K340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>140</v>
       </c>
-      <c r="K341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>141</v>
       </c>
-      <c r="K342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>142</v>
       </c>
-      <c r="K343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>143</v>
       </c>
-      <c r="K344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>144</v>
       </c>
-      <c r="K345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>145</v>
       </c>
-      <c r="K346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>146</v>
       </c>
-      <c r="K347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>147</v>
       </c>
-      <c r="K348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>148</v>
       </c>
-      <c r="K349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>149</v>
       </c>
-      <c r="K350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>150</v>
       </c>
-      <c r="K351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>151</v>
       </c>
-      <c r="K352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>152</v>
       </c>
-      <c r="K353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>153</v>
       </c>
-      <c r="K354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>154</v>
       </c>
-      <c r="K355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>155</v>
       </c>
-      <c r="K356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>156</v>
       </c>
-      <c r="K357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>157</v>
       </c>
-      <c r="K358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>158</v>
       </c>
-      <c r="K359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>159</v>
       </c>
-      <c r="K360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>160</v>
       </c>
-      <c r="K361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>161</v>
       </c>
-      <c r="K362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>162</v>
       </c>
-      <c r="K363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>163</v>
       </c>
-      <c r="K364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>164</v>
       </c>
-      <c r="K365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>165</v>
       </c>
-      <c r="K366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>166</v>
       </c>
-      <c r="K367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>167</v>
       </c>
-      <c r="K368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>168</v>
       </c>
-      <c r="K369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>169</v>
       </c>
-      <c r="K370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>170</v>
       </c>
-      <c r="K371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>171</v>
       </c>
-      <c r="K372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>172</v>
       </c>
-      <c r="K373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>173</v>
       </c>
-      <c r="K374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>174</v>
       </c>
-      <c r="K375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>175</v>
       </c>
-      <c r="K376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>176</v>
       </c>
-      <c r="K377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>177</v>
       </c>
-      <c r="K378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>178</v>
       </c>
-      <c r="K379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>179</v>
       </c>
-      <c r="K380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>180</v>
       </c>
-      <c r="K381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>181</v>
       </c>
-      <c r="K382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>182</v>
       </c>
-      <c r="K383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>183</v>
       </c>
-      <c r="K384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>184</v>
       </c>
-      <c r="K385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>185</v>
       </c>
-      <c r="K386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>186</v>
       </c>
-      <c r="K387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>187</v>
       </c>
-      <c r="K388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>188</v>
       </c>
-      <c r="K389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>189</v>
       </c>
-      <c r="K390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>190</v>
       </c>
-      <c r="K391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>191</v>
       </c>
-      <c r="K392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>192</v>
       </c>
-      <c r="K393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>193</v>
       </c>
-      <c r="K394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>194</v>
       </c>
-      <c r="K395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>195</v>
       </c>
-      <c r="K396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>196</v>
       </c>
-      <c r="K397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>197</v>
       </c>
-      <c r="K398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>198</v>
       </c>
-      <c r="K399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>199</v>
       </c>
-      <c r="K400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>200</v>
       </c>
-      <c r="K401">
+      <c r="L401">
         <v>0</v>
       </c>
     </row>
@@ -10262,10 +10342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CF34D9-A16A-4EEA-AED5-AE03E5A8DCED}">
-  <dimension ref="A1:M401"/>
+  <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201:N206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10273,7 +10353,7 @@
     <col min="1" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -10281,40 +10361,43 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10322,25 +10405,28 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
         <v>336</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
       <c r="M2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10348,25 +10434,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3">
         <v>200</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10374,113 +10463,314 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
         <v>150</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>336</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9">
+        <v>336</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>330</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15">
+        <v>330</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11896,7 +12186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11904,7 +12194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11912,7 +12202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11920,7 +12210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11928,7 +12218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11936,7 +12226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11944,7 +12234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11952,7 +12242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11960,7 +12250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11968,85 +12258,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="B202">
         <v>2</v>
       </c>
-      <c r="C202" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" t="s">
-        <v>25</v>
-      </c>
       <c r="K202">
         <v>0</v>
       </c>
-      <c r="L202">
-        <v>2</v>
-      </c>
-      <c r="M202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2</v>
       </c>
       <c r="B203">
         <v>2</v>
       </c>
-      <c r="C203" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" t="s">
-        <v>26</v>
-      </c>
-      <c r="E203" t="s">
-        <v>27</v>
-      </c>
       <c r="K203">
         <v>0</v>
       </c>
-      <c r="L203">
-        <v>2</v>
-      </c>
-      <c r="M203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
-      <c r="C204" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" t="s">
-        <v>25</v>
-      </c>
       <c r="K204">
         <v>0</v>
       </c>
-      <c r="L204">
-        <v>2</v>
-      </c>
-      <c r="M204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4</v>
       </c>
@@ -12057,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>5</v>
       </c>
@@ -12068,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>6</v>
       </c>
@@ -12079,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7</v>
       </c>
